--- a/results/mp/logistic/corona/confidence/168/desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="207">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,15 @@
     <t>killed</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
@@ -52,418 +61,487 @@
     <t>death</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>slash</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>pressure</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>beginning</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>ref</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>affected</t>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>shortages</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>vulnerable</t>
   </si>
   <si>
-    <t>stop</t>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>related</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>demand</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
+    <t>because</t>
+  </si>
+  <si>
     <t>buying</t>
   </si>
   <si>
-    <t>why</t>
+    <t>due</t>
+  </si>
+  <si>
+    <t>or</t>
   </si>
   <si>
     <t>prices</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
     <t>with</t>
   </si>
   <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>on</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>are</t>
+    <t>the</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>and</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>growing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>super</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>funny</t>
+    <t>team</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>giving</t>
+    <t>alert</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>security</t>
   </si>
   <si>
     <t>dear</t>
   </si>
   <si>
-    <t>kind</t>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
+    <t>solution</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>easter</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>yourself</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>yourself</t>
-  </si>
-  <si>
-    <t>article</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>amazon</t>
   </si>
   <si>
     <t>house</t>
@@ -472,91 +550,91 @@
     <t>keep</t>
   </si>
   <si>
-    <t>increased</t>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>local</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>need</t>
   </si>
   <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>consumer</t>
+    <t>stock</t>
   </si>
   <si>
     <t>our</t>
   </si>
   <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>!</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>at</t>
   </si>
   <si>
-    <t>this</t>
+    <t>food</t>
   </si>
   <si>
     <t>'</t>
   </si>
   <si>
     <t>is</t>
-  </si>
-  <si>
-    <t>in</t>
   </si>
 </sst>
 </file>
@@ -914,7 +992,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,10 +1000,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1004,16 +1082,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1025,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1033,13 +1111,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9459459459459459</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1051,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1083,13 +1161,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1101,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1125,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1133,13 +1211,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.92</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1151,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="K6">
-        <v>0.9416666666666667</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="M6">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1175,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1183,13 +1261,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9210526315789473</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1204,16 +1282,16 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="K7">
-        <v>0.9302325581395349</v>
+        <v>0.9162303664921466</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1222,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1233,13 +1311,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8695652173913043</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1254,16 +1332,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1304,16 +1382,16 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K9">
-        <v>0.9112271540469974</v>
+        <v>0.890625</v>
       </c>
       <c r="L9">
-        <v>349</v>
+        <v>114</v>
       </c>
       <c r="M9">
-        <v>349</v>
+        <v>114</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1325,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1333,13 +1411,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8595890410958904</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C10">
-        <v>251</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>251</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1351,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1375,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1383,13 +1461,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8421052631578947</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1401,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="K11">
-        <v>0.8983050847457628</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1425,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1436,10 +1514,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1451,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="K12">
-        <v>0.8947368421052632</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1475,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1483,13 +1561,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8275862068965517</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1501,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="K13">
-        <v>0.8928571428571429</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1525,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1533,13 +1611,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8076923076923077</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1551,19 +1629,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K14">
-        <v>0.8867924528301887</v>
+        <v>0.875</v>
       </c>
       <c r="L14">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1575,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1583,13 +1661,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1601,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="K15">
-        <v>0.875</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1625,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1633,13 +1711,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1654,16 +1732,16 @@
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="K16">
-        <v>0.8732394366197183</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L16">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1675,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1683,13 +1761,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.775</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1701,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="K17">
-        <v>0.8666666666666667</v>
+        <v>0.8661971830985915</v>
       </c>
       <c r="L17">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1725,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1733,13 +1811,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7692307692307693</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1751,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="K18">
         <v>0.8636363636363636</v>
@@ -1783,28 +1861,28 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7647058823529411</v>
+        <v>0.76</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="K19">
         <v>0.8625</v>
@@ -1833,13 +1911,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7419354838709677</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1851,31 +1929,31 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+      <c r="M20">
+        <v>50</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>8</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L20">
-        <v>49</v>
-      </c>
-      <c r="M20">
-        <v>49</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1904,16 +1982,16 @@
         <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="K21">
-        <v>0.84375</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L21">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1925,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1933,13 +2011,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7391304347826086</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1951,19 +2029,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="K22">
-        <v>0.8421052631578947</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1975,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2004,16 +2082,16 @@
         <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="K23">
-        <v>0.8414634146341463</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L23">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M23">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2025,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2054,16 +2132,16 @@
         <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="K24">
-        <v>0.8297872340425532</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2075,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2083,7 +2161,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7333333333333333</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C25">
         <v>22</v>
@@ -2101,19 +2179,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="K25">
-        <v>0.8235294117647058</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2125,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2133,13 +2211,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6923076923076923</v>
+        <v>0.7</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2151,19 +2229,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="K26">
-        <v>0.8125</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2175,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2183,49 +2261,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6842105263157895</v>
+        <v>0.687984496124031</v>
       </c>
       <c r="C27">
+        <v>355</v>
+      </c>
+      <c r="D27">
+        <v>355</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>161</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27">
+        <v>50</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>13</v>
-      </c>
-      <c r="D27">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K27">
-        <v>0.8095238095238095</v>
-      </c>
-      <c r="L27">
-        <v>51</v>
-      </c>
-      <c r="M27">
-        <v>51</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2233,13 +2311,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6705426356589147</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C28">
-        <v>346</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>346</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2251,19 +2329,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="K28">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2275,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2283,13 +2361,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6613756613756614</v>
+        <v>0.6772486772486772</v>
       </c>
       <c r="C29">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D29">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2301,19 +2379,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="K29">
-        <v>0.7857142857142857</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2325,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2333,13 +2411,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6538461538461539</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2354,16 +2432,16 @@
         <v>9</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="K30">
-        <v>0.7857142857142857</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2375,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2383,38 +2461,38 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.65</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C31">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L31">
         <v>13</v>
       </c>
-      <c r="D31">
+      <c r="M31">
         <v>13</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>7</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K31">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L31">
-        <v>21</v>
-      </c>
-      <c r="M31">
-        <v>21</v>
-      </c>
       <c r="N31">
         <v>1</v>
       </c>
@@ -2425,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2433,13 +2511,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6296296296296297</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2451,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="K32">
-        <v>0.7727272727272727</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2475,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2483,13 +2561,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6101694915254238</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C33">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2501,19 +2579,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="K33">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2525,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2533,13 +2611,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5973154362416108</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C34">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2551,19 +2629,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="K34">
         <v>0.75</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2575,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2583,13 +2661,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2601,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="K35">
-        <v>0.7450980392156863</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2625,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2633,13 +2711,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5806451612903226</v>
+        <v>0.6174496644295302</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2651,19 +2729,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="K36">
-        <v>0.7407407407407407</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2675,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2683,13 +2761,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5675675675675675</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2701,19 +2779,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="K37">
-        <v>0.74</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2733,13 +2811,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5600000000000001</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C38">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2751,19 +2829,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="K38">
-        <v>0.7382352941176471</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="L38">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="M38">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2772,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2783,13 +2861,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5444444444444444</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C39">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="D39">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2801,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="K39">
-        <v>0.7368421052631579</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2825,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2833,13 +2911,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.53125</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2851,19 +2929,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="K40">
-        <v>0.725</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2875,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2883,13 +2961,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.509090909090909</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2901,19 +2979,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="K41">
-        <v>0.723404255319149</v>
+        <v>0.725</v>
       </c>
       <c r="L41">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2925,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2933,13 +3011,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C42">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2951,19 +3029,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="K42">
-        <v>0.7083333333333334</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2975,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2983,7 +3061,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C43">
         <v>15</v>
@@ -3001,31 +3079,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="K43">
-        <v>0.7074829931972789</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L43">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="M43">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3033,13 +3111,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4933333333333333</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3051,19 +3129,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="K44">
-        <v>0.698744769874477</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L44">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3075,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3083,13 +3161,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4727272727272727</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C45">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D45">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3101,19 +3179,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="K45">
-        <v>0.6857142857142857</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L45">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3125,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3133,13 +3211,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4722222222222222</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3151,19 +3229,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="K46">
-        <v>0.676923076923077</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L46">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3175,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3183,13 +3261,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4666666666666667</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C47">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3201,19 +3279,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="K47">
-        <v>0.6666666666666666</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3225,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3233,7 +3311,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4615384615384616</v>
+        <v>0.5625</v>
       </c>
       <c r="C48">
         <v>18</v>
@@ -3251,19 +3329,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="K48">
-        <v>0.6666666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3275,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3283,37 +3361,37 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4516129032258064</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C49">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>17</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>14</v>
       </c>
-      <c r="D49">
-        <v>14</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>17</v>
-      </c>
       <c r="J49" s="1" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="K49">
-        <v>0.6521739130434783</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3325,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3333,37 +3411,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4516129032258064</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C50">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>14</v>
       </c>
-      <c r="D50">
-        <v>14</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>17</v>
-      </c>
       <c r="J50" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="K50">
-        <v>0.651685393258427</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L50">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="M50">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3375,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3383,7 +3461,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3766233766233766</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C51">
         <v>29</v>
@@ -3401,31 +3479,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="K51">
-        <v>0.6363636363636364</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L51">
+        <v>44</v>
+      </c>
+      <c r="M51">
+        <v>44</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>21</v>
-      </c>
-      <c r="M51">
-        <v>21</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3433,37 +3511,37 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.375</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>15</v>
       </c>
-      <c r="D52">
-        <v>15</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>25</v>
-      </c>
       <c r="J52" s="1" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="K52">
-        <v>0.6285714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L52">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="M52">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3475,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3483,13 +3561,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3333333333333333</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C53">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D53">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3501,31 +3579,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="K53">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L53">
+        <v>30</v>
+      </c>
+      <c r="M53">
+        <v>30</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>15</v>
-      </c>
-      <c r="M53">
-        <v>15</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3533,13 +3611,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3220338983050847</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C54">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D54">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3551,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="K54">
-        <v>0.6222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L54">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3575,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3583,13 +3661,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3601,19 +3679,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="K55">
-        <v>0.6190476190476191</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3625,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3633,13 +3711,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2600536193029491</v>
+        <v>0.425</v>
       </c>
       <c r="C56">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="D56">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3651,19 +3729,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>276</v>
+        <v>46</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="K56">
-        <v>0.6153846153846154</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L56">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="M56">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3675,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3683,13 +3761,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2549019607843137</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3701,19 +3779,19 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="K57">
-        <v>0.6086956521739131</v>
+        <v>0.65</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N57">
         <v>0.93</v>
@@ -3725,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3733,13 +3811,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.13</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="C58">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D58">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3751,19 +3829,19 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>261</v>
+        <v>47</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="K58">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M58">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3775,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3783,13 +3861,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.09215017064846416</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C59">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D59">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3801,19 +3879,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="K59">
-        <v>0.5416666666666666</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3825,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3833,13 +3911,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.08724832214765101</v>
+        <v>0.35</v>
       </c>
       <c r="C60">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3851,19 +3929,19 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="K60">
-        <v>0.5294117647058824</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L60">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3875,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3883,37 +3961,37 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03626943005181347</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C61">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E61">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>1116</v>
+        <v>34</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="K61">
-        <v>0.5254237288135594</v>
+        <v>0.578125</v>
       </c>
       <c r="L61">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M61">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3925,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3933,37 +4011,37 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.02457161332040091</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C62">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D62">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E62">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>3017</v>
+        <v>30</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="K62">
-        <v>0.5161290322580645</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3975,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3983,49 +4061,49 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01946677951756242</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C63">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E63">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>2317</v>
+        <v>42</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="K63">
-        <v>0.5121951219512195</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N63">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4033,37 +4111,37 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.01849217638691323</v>
+        <v>0.2680965147453083</v>
       </c>
       <c r="C64">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D64">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="E64">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>690</v>
+        <v>273</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="K64">
-        <v>0.4838709677419355</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -4075,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4083,37 +4161,37 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01684397163120567</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E65">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>1109</v>
+        <v>44</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="K65">
-        <v>0.4794520547945205</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L65">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M65">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -4125,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4133,37 +4211,37 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01642421398404505</v>
+        <v>0.15</v>
       </c>
       <c r="C66">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D66">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E66">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>2096</v>
+        <v>255</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="K66">
-        <v>0.4426229508196721</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L66">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -4175,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4183,37 +4261,37 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01442307692307692</v>
+        <v>0.1</v>
       </c>
       <c r="C67">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D67">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.3100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>1230</v>
+        <v>144</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K67">
-        <v>0.4375</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L67">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M67">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -4225,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4233,37 +4311,37 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.0135312090790048</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C68">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D68">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E68">
-        <v>0.37</v>
+        <v>0.03</v>
       </c>
       <c r="F68">
-        <v>0.63</v>
+        <v>0.97</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>2260</v>
+        <v>264</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="K68">
-        <v>0.4358974358974359</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L68">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M68">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -4275,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4283,37 +4361,37 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.008809710258418167</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="C69">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D69">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="E69">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.4399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>5063</v>
+        <v>222</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="K69">
-        <v>0.4035087719298245</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L69">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M69">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -4325,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4333,37 +4411,37 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.008415147265077139</v>
+        <v>0.05191256830601093</v>
       </c>
       <c r="C70">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D70">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E70">
-        <v>0.58</v>
+        <v>0.1</v>
       </c>
       <c r="F70">
-        <v>0.42</v>
+        <v>0.9</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>4242</v>
+        <v>347</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="K70">
-        <v>0.3714285714285714</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M70">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -4375,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4383,37 +4461,37 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.00835421888053467</v>
+        <v>0.0457685664939551</v>
       </c>
       <c r="C71">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D71">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E71">
-        <v>0.72</v>
+        <v>0.05</v>
       </c>
       <c r="F71">
-        <v>0.28</v>
+        <v>0.95</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>2374</v>
+        <v>1105</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="K71">
-        <v>0.2954545454545455</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L71">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M71">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -4425,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4433,31 +4511,31 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.008316430020283976</v>
+        <v>0.03351718285956724</v>
       </c>
       <c r="C72">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D72">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E72">
-        <v>0.62</v>
+        <v>0.22</v>
       </c>
       <c r="F72">
-        <v>0.38</v>
+        <v>0.78</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>4889</v>
+        <v>2278</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="K72">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L72">
         <v>14</v>
@@ -4475,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4483,31 +4561,31 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.007701193685021178</v>
+        <v>0.03073770491803279</v>
       </c>
       <c r="C73">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E73">
-        <v>0.79</v>
+        <v>0.06</v>
       </c>
       <c r="F73">
-        <v>0.21</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>2577</v>
+        <v>473</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="K73">
-        <v>0.1935483870967742</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L73">
         <v>24</v>
@@ -4525,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4533,90 +4611,138 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.006070287539936103</v>
+        <v>0.0304305600517967</v>
       </c>
       <c r="C74">
+        <v>94</v>
+      </c>
+      <c r="D74">
+        <v>112</v>
+      </c>
+      <c r="E74">
+        <v>0.16</v>
+      </c>
+      <c r="F74">
+        <v>0.84</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>2995</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K74">
+        <v>0.375</v>
+      </c>
+      <c r="L74">
+        <v>27</v>
+      </c>
+      <c r="M74">
+        <v>27</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.02991452991452992</v>
+      </c>
+      <c r="C75">
+        <v>21</v>
+      </c>
+      <c r="D75">
+        <v>27</v>
+      </c>
+      <c r="E75">
+        <v>0.22</v>
+      </c>
+      <c r="F75">
+        <v>0.78</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>681</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K75">
+        <v>0.2765957446808511</v>
+      </c>
+      <c r="L75">
+        <v>13</v>
+      </c>
+      <c r="M75">
+        <v>13</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.02592592592592593</v>
+      </c>
+      <c r="C76">
+        <v>14</v>
+      </c>
+      <c r="D76">
         <v>19</v>
       </c>
-      <c r="D74">
-        <v>90</v>
-      </c>
-      <c r="E74">
-        <v>0.79</v>
-      </c>
-      <c r="F74">
-        <v>0.21</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>3111</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K74">
-        <v>0.1805555555555556</v>
-      </c>
-      <c r="L74">
+      <c r="E76">
+        <v>0.26</v>
+      </c>
+      <c r="F76">
+        <v>0.74</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>526</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K76">
+        <v>0.2452830188679245</v>
+      </c>
+      <c r="L76">
         <v>13</v>
       </c>
-      <c r="M74">
+      <c r="M76">
         <v>13</v>
       </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="J75" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K75">
-        <v>0.1759259259259259</v>
-      </c>
-      <c r="L75">
-        <v>19</v>
-      </c>
-      <c r="M75">
-        <v>20</v>
-      </c>
-      <c r="N75">
-        <v>0.95</v>
-      </c>
-      <c r="O75">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P75" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q75">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="J76" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K76">
-        <v>0.1678321678321678</v>
-      </c>
-      <c r="L76">
-        <v>24</v>
-      </c>
-      <c r="M76">
-        <v>24</v>
-      </c>
       <c r="N76">
         <v>1</v>
       </c>
@@ -4627,15 +4753,39 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>119</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:17">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.02458628841607565</v>
+      </c>
+      <c r="C77">
+        <v>52</v>
+      </c>
+      <c r="D77">
+        <v>80</v>
+      </c>
+      <c r="E77">
+        <v>0.35</v>
+      </c>
+      <c r="F77">
+        <v>0.65</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>2063</v>
+      </c>
       <c r="J77" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="K77">
-        <v>0.1473684210526316</v>
+        <v>0.2</v>
       </c>
       <c r="L77">
         <v>14</v>
@@ -4653,145 +4803,289 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:17">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.02332814930015552</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+      <c r="D78">
+        <v>19</v>
+      </c>
+      <c r="E78">
+        <v>0.21</v>
+      </c>
+      <c r="F78">
+        <v>0.79</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>628</v>
+      </c>
       <c r="J78" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="K78">
-        <v>0.1458333333333333</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L78">
+        <v>22</v>
+      </c>
+      <c r="M78">
+        <v>22</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.02254428341384863</v>
+      </c>
+      <c r="C79">
         <v>14</v>
       </c>
-      <c r="M78">
+      <c r="D79">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>0.3</v>
+      </c>
+      <c r="F79">
+        <v>0.7</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>607</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K79">
+        <v>0.172972972972973</v>
+      </c>
+      <c r="L79">
+        <v>32</v>
+      </c>
+      <c r="M79">
+        <v>32</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.02232854864433812</v>
+      </c>
+      <c r="C80">
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <v>37</v>
+      </c>
+      <c r="E80">
+        <v>0.62</v>
+      </c>
+      <c r="F80">
+        <v>0.38</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>613</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K80">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L80">
+        <v>13</v>
+      </c>
+      <c r="M80">
+        <v>14</v>
+      </c>
+      <c r="N80">
+        <v>0.93</v>
+      </c>
+      <c r="O80">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.02209302325581395</v>
+      </c>
+      <c r="C81">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>41</v>
+      </c>
+      <c r="E81">
+        <v>0.54</v>
+      </c>
+      <c r="F81">
+        <v>0.46</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>841</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K81">
+        <v>0.1530612244897959</v>
+      </c>
+      <c r="L81">
         <v>15</v>
       </c>
-      <c r="N78">
-        <v>0.93</v>
-      </c>
-      <c r="O78">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P78" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="J79" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K79">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="L79">
-        <v>16</v>
-      </c>
-      <c r="M79">
-        <v>17</v>
-      </c>
-      <c r="N79">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O79">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P79" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q79">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="J80" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K80">
-        <v>0.1351351351351351</v>
-      </c>
-      <c r="L80">
-        <v>25</v>
-      </c>
-      <c r="M80">
-        <v>25</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="10:17">
-      <c r="J81" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K81">
-        <v>0.09446254071661238</v>
-      </c>
-      <c r="L81">
-        <v>29</v>
-      </c>
       <c r="M81">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N81">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.02085747392815759</v>
+      </c>
+      <c r="C82">
+        <v>18</v>
+      </c>
+      <c r="D82">
+        <v>22</v>
+      </c>
+      <c r="E82">
+        <v>0.18</v>
+      </c>
+      <c r="F82">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>845</v>
+      </c>
       <c r="J82" s="1" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="K82">
-        <v>0.09202453987730061</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="L82">
         <v>15</v>
       </c>
       <c r="M82">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.0198581560283688</v>
+      </c>
+      <c r="C83">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>29</v>
+      </c>
+      <c r="E83">
+        <v>0.52</v>
+      </c>
+      <c r="F83">
+        <v>0.48</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>691</v>
+      </c>
       <c r="J83" s="1" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="K83">
-        <v>0.07878787878787878</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L83">
         <v>13</v>
@@ -4809,21 +5103,45 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.01755786113328013</v>
+      </c>
+      <c r="C84">
+        <v>22</v>
+      </c>
+      <c r="D84">
+        <v>58</v>
+      </c>
+      <c r="E84">
+        <v>0.62</v>
+      </c>
+      <c r="F84">
+        <v>0.38</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1231</v>
+      </c>
       <c r="J84" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="K84">
-        <v>0.06920415224913495</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="L84">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M84">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -4835,229 +5153,445 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.01607142857142857</v>
+      </c>
+      <c r="C85">
+        <v>18</v>
+      </c>
+      <c r="D85">
+        <v>38</v>
+      </c>
+      <c r="E85">
+        <v>0.53</v>
+      </c>
+      <c r="F85">
+        <v>0.47</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1102</v>
+      </c>
       <c r="J85" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K85">
+        <v>0.1126760563380282</v>
+      </c>
+      <c r="L85">
+        <v>16</v>
+      </c>
+      <c r="M85">
+        <v>17</v>
+      </c>
+      <c r="N85">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O85">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.01375515818431912</v>
+      </c>
+      <c r="C86">
+        <v>70</v>
+      </c>
+      <c r="D86">
+        <v>146</v>
+      </c>
+      <c r="E86">
+        <v>0.52</v>
+      </c>
+      <c r="F86">
+        <v>0.48</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>5019</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K86">
+        <v>0.08441558441558442</v>
+      </c>
+      <c r="L86">
+        <v>26</v>
+      </c>
+      <c r="M86">
+        <v>26</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.0131578947368421</v>
+      </c>
+      <c r="C87">
+        <v>30</v>
+      </c>
+      <c r="D87">
+        <v>59</v>
+      </c>
+      <c r="E87">
+        <v>0.49</v>
+      </c>
+      <c r="F87">
+        <v>0.51</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>2250</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K87">
+        <v>0.07932692307692307</v>
+      </c>
+      <c r="L87">
+        <v>33</v>
+      </c>
+      <c r="M87">
+        <v>33</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.01266416510318949</v>
+      </c>
+      <c r="C88">
+        <v>54</v>
+      </c>
+      <c r="D88">
+        <v>118</v>
+      </c>
+      <c r="E88">
+        <v>0.54</v>
+      </c>
+      <c r="F88">
+        <v>0.46</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>4210</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K88">
+        <v>0.07926829268292683</v>
+      </c>
+      <c r="L88">
+        <v>13</v>
+      </c>
+      <c r="M88">
+        <v>14</v>
+      </c>
+      <c r="N88">
+        <v>0.93</v>
+      </c>
+      <c r="O88">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.01206050695012265</v>
+      </c>
+      <c r="C89">
+        <v>59</v>
+      </c>
+      <c r="D89">
         <v>163</v>
       </c>
-      <c r="K85">
-        <v>0.06581352833638025</v>
-      </c>
-      <c r="L85">
-        <v>36</v>
-      </c>
-      <c r="M85">
-        <v>36</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K86">
-        <v>0.06439393939393939</v>
-      </c>
-      <c r="L86">
-        <v>17</v>
-      </c>
-      <c r="M86">
+      <c r="E89">
+        <v>0.64</v>
+      </c>
+      <c r="F89">
+        <v>0.36</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>4833</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K89">
+        <v>0.07471264367816093</v>
+      </c>
+      <c r="L89">
+        <v>26</v>
+      </c>
+      <c r="M89">
+        <v>27</v>
+      </c>
+      <c r="N89">
+        <v>0.96</v>
+      </c>
+      <c r="O89">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.01138760016870519</v>
+      </c>
+      <c r="C90">
+        <v>27</v>
+      </c>
+      <c r="D90">
+        <v>101</v>
+      </c>
+      <c r="E90">
+        <v>0.73</v>
+      </c>
+      <c r="F90">
+        <v>0.27</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>2344</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K90">
+        <v>0.07447698744769875</v>
+      </c>
+      <c r="L90">
+        <v>89</v>
+      </c>
+      <c r="M90">
+        <v>94</v>
+      </c>
+      <c r="N90">
+        <v>0.95</v>
+      </c>
+      <c r="O90">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>0.01010886469673406</v>
+      </c>
+      <c r="C91">
+        <v>26</v>
+      </c>
+      <c r="D91">
+        <v>127</v>
+      </c>
+      <c r="E91">
+        <v>0.8</v>
+      </c>
+      <c r="F91">
+        <v>0.2</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>2546</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K91">
+        <v>0.07339449541284404</v>
+      </c>
+      <c r="L91">
+        <v>40</v>
+      </c>
+      <c r="M91">
+        <v>42</v>
+      </c>
+      <c r="N91">
+        <v>0.95</v>
+      </c>
+      <c r="O91">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>0.009609224855861628</v>
+      </c>
+      <c r="C92">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>48</v>
+      </c>
+      <c r="E92">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F92">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1546</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K92">
+        <v>0.0726643598615917</v>
+      </c>
+      <c r="L92">
         <v>21</v>
       </c>
-      <c r="N86">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O86">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K87">
-        <v>0.06009615384615385</v>
-      </c>
-      <c r="L87">
-        <v>25</v>
-      </c>
-      <c r="M87">
-        <v>25</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K88">
-        <v>0.05280804694048617</v>
-      </c>
-      <c r="L88">
-        <v>63</v>
-      </c>
-      <c r="M88">
-        <v>70</v>
-      </c>
-      <c r="N88">
-        <v>0.9</v>
-      </c>
-      <c r="O88">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P88" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K89">
-        <v>0.0462046204620462</v>
-      </c>
-      <c r="L89">
-        <v>14</v>
-      </c>
-      <c r="M89">
-        <v>17</v>
-      </c>
-      <c r="N89">
-        <v>0.82</v>
-      </c>
-      <c r="O89">
-        <v>0.18</v>
-      </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K90">
-        <v>0.0405616224648986</v>
-      </c>
-      <c r="L90">
-        <v>26</v>
-      </c>
-      <c r="M90">
-        <v>35</v>
-      </c>
-      <c r="N90">
-        <v>0.74</v>
-      </c>
-      <c r="O90">
-        <v>0.26</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K91">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="L91">
-        <v>41</v>
-      </c>
-      <c r="M91">
-        <v>59</v>
-      </c>
-      <c r="N91">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="O91">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
-      <c r="J92" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K92">
-        <v>0.03125</v>
-      </c>
-      <c r="L92">
-        <v>13</v>
-      </c>
       <c r="M92">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N92">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="93" spans="10:17">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>0.008959999999999999</v>
+      </c>
+      <c r="C93">
+        <v>28</v>
+      </c>
+      <c r="D93">
+        <v>104</v>
+      </c>
+      <c r="E93">
+        <v>0.73</v>
+      </c>
+      <c r="F93">
+        <v>0.27</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>3097</v>
+      </c>
       <c r="J93" s="1" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="K93">
-        <v>0.03048780487804878</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L93">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M93">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N93">
         <v>0.86</v>
@@ -5069,177 +5603,225 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="94" spans="10:17">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.006129184347006129</v>
+      </c>
+      <c r="C94">
+        <v>13</v>
+      </c>
+      <c r="D94">
+        <v>50</v>
+      </c>
+      <c r="E94">
+        <v>0.74</v>
+      </c>
+      <c r="F94">
+        <v>0.26</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>2108</v>
+      </c>
       <c r="J94" s="1" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="K94">
-        <v>0.02893081761006289</v>
+        <v>0.05528846153846154</v>
       </c>
       <c r="L94">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M94">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="N94">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="O94">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="95" spans="10:17">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.005577005577005577</v>
+      </c>
+      <c r="C95">
+        <v>13</v>
+      </c>
+      <c r="D95">
+        <v>76</v>
+      </c>
+      <c r="E95">
+        <v>0.83</v>
+      </c>
+      <c r="F95">
+        <v>0.17</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>2318</v>
+      </c>
       <c r="J95" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="K95">
-        <v>0.0286468149264983</v>
+        <v>0.03815640347563279</v>
       </c>
       <c r="L95">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="M95">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="N95">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="O95">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>2577</v>
-      </c>
-    </row>
-    <row r="96" spans="10:17">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="J96" s="1" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="K96">
-        <v>0.02763819095477387</v>
+        <v>0.03616352201257862</v>
       </c>
       <c r="L96">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M96">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N96">
-        <v>0.8100000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="O96">
-        <v>0.1899999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>774</v>
+        <v>613</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="K97">
-        <v>0.02337334175615919</v>
+        <v>0.03603603603603604</v>
       </c>
       <c r="L97">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="M97">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N97">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="O97">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>1546</v>
+        <v>428</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="K98">
-        <v>0.02231301068510371</v>
+        <v>0.03229398663697105</v>
       </c>
       <c r="L98">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="M98">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N98">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="O98">
-        <v>0.21</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>3111</v>
+        <v>869</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="K99">
-        <v>0.02103092783505155</v>
+        <v>0.03060380479735319</v>
       </c>
       <c r="L99">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="M99">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="N99">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="O99">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>2374</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="K100">
-        <v>0.01830443159922929</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="L100">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M100">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N100">
         <v>0.9</v>
@@ -5251,319 +5833,657 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>1019</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="K101">
-        <v>0.01775804661487236</v>
+        <v>0.02910602910602911</v>
       </c>
       <c r="L101">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M101">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
-        <v>885</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="K102">
-        <v>0.01726121979286536</v>
+        <v>0.02885821831869511</v>
       </c>
       <c r="L102">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M102">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N102">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="O102">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="P102" t="b">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>854</v>
+        <v>774</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="K103">
-        <v>0.01450892857142857</v>
+        <v>0.02841357537490134</v>
       </c>
       <c r="L103">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M103">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="N103">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="O103">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>883</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="K104">
-        <v>0.01331987891019173</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="L104">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="M104">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="N104">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="O104">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>4889</v>
+        <v>525</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="K105">
-        <v>0.01310483870967742</v>
+        <v>0.02645947081058379</v>
       </c>
       <c r="L105">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M105">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="N105">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
       <c r="O105">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>979</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K106">
-        <v>0.01164958061509786</v>
+        <v>0.02549246813441483</v>
       </c>
       <c r="L106">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M106">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="N106">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="O106">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>4242</v>
+        <v>841</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="K107">
-        <v>0.0111328125</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="L107">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="M107">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N107">
-        <v>0.5600000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O107">
-        <v>0.4399999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>5063</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K108">
-        <v>0.009601181683899557</v>
+        <v>0.02249718785151856</v>
       </c>
       <c r="L108">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M108">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N108">
-        <v>0.59</v>
+        <v>0.8</v>
       </c>
       <c r="O108">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>1341</v>
+        <v>869</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="K109">
-        <v>0.009319664492078284</v>
+        <v>0.02138492871690428</v>
       </c>
       <c r="L109">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M109">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N109">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="O109">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>2126</v>
+        <v>961</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="K110">
-        <v>0.007901668129938543</v>
+        <v>0.02124645892351275</v>
       </c>
       <c r="L110">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M110">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N110">
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
       <c r="O110">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>2260</v>
+        <v>691</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="K111">
-        <v>0.006858122588941277</v>
+        <v>0.02119460500963391</v>
       </c>
       <c r="L111">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M111">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="N111">
-        <v>0.26</v>
+        <v>0.92</v>
       </c>
       <c r="O111">
-        <v>0.74</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>2317</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="K112">
-        <v>0.004618937644341801</v>
+        <v>0.02106542434676929</v>
       </c>
       <c r="L112">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="M112">
+        <v>163</v>
+      </c>
+      <c r="N112">
+        <v>0.64</v>
+      </c>
+      <c r="O112">
+        <v>0.36</v>
+      </c>
+      <c r="P112" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>4833</v>
+      </c>
+    </row>
+    <row r="113" spans="10:17">
+      <c r="J113" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K113">
+        <v>0.02089930335655478</v>
+      </c>
+      <c r="L113">
+        <v>33</v>
+      </c>
+      <c r="M113">
+        <v>48</v>
+      </c>
+      <c r="N113">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O113">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P113" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="114" spans="10:17">
+      <c r="J114" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K114">
+        <v>0.0194954128440367</v>
+      </c>
+      <c r="L114">
+        <v>17</v>
+      </c>
+      <c r="M114">
+        <v>23</v>
+      </c>
+      <c r="N114">
+        <v>0.74</v>
+      </c>
+      <c r="O114">
+        <v>0.26</v>
+      </c>
+      <c r="P114" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N112">
+      <c r="K115">
+        <v>0.017825311942959</v>
+      </c>
+      <c r="L115">
+        <v>20</v>
+      </c>
+      <c r="M115">
+        <v>38</v>
+      </c>
+      <c r="N115">
+        <v>0.53</v>
+      </c>
+      <c r="O115">
+        <v>0.47</v>
+      </c>
+      <c r="P115" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K116">
+        <v>0.01772679874869656</v>
+      </c>
+      <c r="L116">
+        <v>17</v>
+      </c>
+      <c r="M116">
+        <v>26</v>
+      </c>
+      <c r="N116">
+        <v>0.65</v>
+      </c>
+      <c r="O116">
+        <v>0.35</v>
+      </c>
+      <c r="P116" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K117">
+        <v>0.01724941724941725</v>
+      </c>
+      <c r="L117">
+        <v>37</v>
+      </c>
+      <c r="M117">
+        <v>50</v>
+      </c>
+      <c r="N117">
+        <v>0.74</v>
+      </c>
+      <c r="O117">
+        <v>0.26</v>
+      </c>
+      <c r="P117" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="118" spans="10:17">
+      <c r="J118" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K118">
+        <v>0.01497426298549368</v>
+      </c>
+      <c r="L118">
+        <v>64</v>
+      </c>
+      <c r="M118">
+        <v>118</v>
+      </c>
+      <c r="N118">
+        <v>0.54</v>
+      </c>
+      <c r="O118">
+        <v>0.46</v>
+      </c>
+      <c r="P118" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="119" spans="10:17">
+      <c r="J119" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K119">
+        <v>0.01491658488714426</v>
+      </c>
+      <c r="L119">
+        <v>76</v>
+      </c>
+      <c r="M119">
+        <v>146</v>
+      </c>
+      <c r="N119">
+        <v>0.52</v>
+      </c>
+      <c r="O119">
+        <v>0.48</v>
+      </c>
+      <c r="P119" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="120" spans="10:17">
+      <c r="J120" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K120">
+        <v>0.01339072214251554</v>
+      </c>
+      <c r="L120">
+        <v>28</v>
+      </c>
+      <c r="M120">
+        <v>80</v>
+      </c>
+      <c r="N120">
+        <v>0.35</v>
+      </c>
+      <c r="O120">
+        <v>0.65</v>
+      </c>
+      <c r="P120" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="121" spans="10:17">
+      <c r="J121" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K121">
+        <v>0.01311806256306761</v>
+      </c>
+      <c r="L121">
+        <v>13</v>
+      </c>
+      <c r="M121">
+        <v>21</v>
+      </c>
+      <c r="N121">
+        <v>0.62</v>
+      </c>
+      <c r="O121">
+        <v>0.38</v>
+      </c>
+      <c r="P121" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="122" spans="10:17">
+      <c r="J122" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K122">
+        <v>0.01272487933304081</v>
+      </c>
+      <c r="L122">
+        <v>29</v>
+      </c>
+      <c r="M122">
+        <v>59</v>
+      </c>
+      <c r="N122">
+        <v>0.49</v>
+      </c>
+      <c r="O122">
+        <v>0.51</v>
+      </c>
+      <c r="P122" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="123" spans="10:17">
+      <c r="J123" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K123">
+        <v>0.009615384615384616</v>
+      </c>
+      <c r="L123">
+        <v>13</v>
+      </c>
+      <c r="M123">
+        <v>24</v>
+      </c>
+      <c r="N123">
+        <v>0.54</v>
+      </c>
+      <c r="O123">
+        <v>0.46</v>
+      </c>
+      <c r="P123" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="124" spans="10:17">
+      <c r="J124" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K124">
+        <v>0.009565217391304347</v>
+      </c>
+      <c r="L124">
+        <v>22</v>
+      </c>
+      <c r="M124">
+        <v>101</v>
+      </c>
+      <c r="N124">
+        <v>0.22</v>
+      </c>
+      <c r="O124">
+        <v>0.78</v>
+      </c>
+      <c r="P124" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="125" spans="10:17">
+      <c r="J125" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K125">
+        <v>0.005974112180550946</v>
+      </c>
+      <c r="L125">
+        <v>18</v>
+      </c>
+      <c r="M125">
+        <v>112</v>
+      </c>
+      <c r="N125">
         <v>0.16</v>
       </c>
-      <c r="O112">
+      <c r="O125">
         <v>0.84</v>
       </c>
-      <c r="P112" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q112">
-        <v>3017</v>
+      <c r="P125" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>2995</v>
       </c>
     </row>
   </sheetData>
